--- a/config_2.2/shoping_config.xlsx
+++ b/config_2.2/shoping_config.xlsx
@@ -11343,10 +11343,10 @@
   <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A542" sqref="A542"/>
+      <selection pane="bottomRight" activeCell="Y542" sqref="Y542:Z542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>

--- a/config_2.2/shoping_config.xlsx
+++ b/config_2.2/shoping_config.xlsx
@@ -11346,7 +11346,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="V521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y542" sqref="Y542:Z542"/>
+      <selection pane="bottomRight" activeCell="F543" sqref="F543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -46031,7 +46031,7 @@
       <c r="D542" s="79"/>
       <c r="E542" s="79"/>
       <c r="F542" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G542" s="79" t="s">
         <v>1362</v>
@@ -46105,7 +46105,7 @@
       <c r="D543" s="79"/>
       <c r="E543" s="79"/>
       <c r="F543" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G543" s="79" t="s">
         <v>1465</v>
@@ -46179,7 +46179,7 @@
       <c r="D544" s="79"/>
       <c r="E544" s="79"/>
       <c r="F544" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G544" s="79" t="s">
         <v>1367</v>
@@ -46253,7 +46253,7 @@
       <c r="D545" s="79"/>
       <c r="E545" s="79"/>
       <c r="F545" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" s="79" t="s">
         <v>1370</v>
@@ -46327,7 +46327,7 @@
       <c r="D546" s="79"/>
       <c r="E546" s="79"/>
       <c r="F546" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G546" s="79" t="s">
         <v>1372</v>
@@ -46401,7 +46401,7 @@
       <c r="D547" s="79"/>
       <c r="E547" s="79"/>
       <c r="F547" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G547" s="79" t="s">
         <v>1373</v>
@@ -46475,7 +46475,7 @@
       <c r="D548" s="79"/>
       <c r="E548" s="79"/>
       <c r="F548" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G548" s="79" t="s">
         <v>1375</v>

--- a/config_2.2/shoping_config.xlsx
+++ b/config_2.2/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4459" uniqueCount="1978">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8447,15 +8447,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_001" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新年福袋</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11342,11 +11354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN548"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V521" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="W524" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F543" sqref="F543"/>
+      <selection pane="bottomRight" activeCell="AA543" sqref="AA543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -44630,7 +44642,7 @@
         <v>1933</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="W521" s="5" t="s">
         <v>1948</v>
@@ -45460,8 +45472,8 @@
       <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="5">
-        <v>44</v>
+      <c r="AA533" s="57">
+        <v>73</v>
       </c>
       <c r="AH533" s="5">
         <v>1</v>
@@ -45528,8 +45540,8 @@
       <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="5">
-        <v>44</v>
+      <c r="AA534" s="57">
+        <v>73</v>
       </c>
       <c r="AH534" s="5">
         <v>1</v>
@@ -45596,8 +45608,8 @@
       <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="5">
-        <v>44</v>
+      <c r="AA535" s="57">
+        <v>73</v>
       </c>
       <c r="AH535" s="5">
         <v>1</v>
@@ -45664,8 +45676,8 @@
       <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="5">
-        <v>45</v>
+      <c r="AA536" s="55">
+        <v>74</v>
       </c>
       <c r="AH536" s="5">
         <v>1</v>
@@ -45732,8 +45744,8 @@
       <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="5">
-        <v>45</v>
+      <c r="AA537" s="55">
+        <v>74</v>
       </c>
       <c r="AH537" s="5">
         <v>1</v>
@@ -45800,8 +45812,8 @@
       <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="5">
-        <v>45</v>
+      <c r="AA538" s="55">
+        <v>74</v>
       </c>
       <c r="AH538" s="5">
         <v>1</v>
@@ -45868,8 +45880,8 @@
       <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="5">
-        <v>46</v>
+      <c r="AA539" s="57">
+        <v>75</v>
       </c>
       <c r="AH539" s="5">
         <v>1</v>
@@ -45936,8 +45948,8 @@
       <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="5">
-        <v>46</v>
+      <c r="AA540" s="57">
+        <v>75</v>
       </c>
       <c r="AH540" s="5">
         <v>1</v>
@@ -46004,8 +46016,8 @@
       <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="5">
-        <v>46</v>
+      <c r="AA541" s="57">
+        <v>75</v>
       </c>
       <c r="AH541" s="5">
         <v>1</v>
@@ -46038,7 +46050,7 @@
       </c>
       <c r="H542" s="79"/>
       <c r="I542" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J542" s="79" t="s">
         <v>1477</v>
@@ -46112,7 +46124,7 @@
       </c>
       <c r="H543" s="79"/>
       <c r="I543" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J543" s="79" t="s">
         <v>1476</v>
@@ -46186,7 +46198,7 @@
       </c>
       <c r="H544" s="79"/>
       <c r="I544" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J544" s="79" t="s">
         <v>1475</v>
@@ -46260,7 +46272,7 @@
       </c>
       <c r="H545" s="79"/>
       <c r="I545" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J545" s="79" t="s">
         <v>1474</v>
@@ -46334,7 +46346,7 @@
       </c>
       <c r="H546" s="79"/>
       <c r="I546" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J546" s="79" t="s">
         <v>1473</v>
@@ -46408,7 +46420,7 @@
       </c>
       <c r="H547" s="79"/>
       <c r="I547" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J547" s="79" t="s">
         <v>1472</v>
@@ -46482,7 +46494,7 @@
       </c>
       <c r="H548" s="79"/>
       <c r="I548" s="79" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J548" s="79" t="s">
         <v>1471</v>
@@ -46551,10 +46563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47567,7 +47579,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="C71" s="73">
         <v>1</v>
@@ -47581,7 +47593,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C72" s="73">
         <v>1</v>
@@ -47595,12 +47607,54 @@
         <v>72</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="C73" s="73">
         <v>1</v>
       </c>
       <c r="D73" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C74" s="73">
+        <v>1</v>
+      </c>
+      <c r="D74" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C75" s="73">
+        <v>1</v>
+      </c>
+      <c r="D75" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C76" s="73">
+        <v>1</v>
+      </c>
+      <c r="D76" s="73">
         <v>0</v>
       </c>
     </row>

--- a/config_2.2/shoping_config.xlsx
+++ b/config_2.2/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8315,10 +8315,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>60000,20000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1000000,38000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8452,6 +8448,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "golden_egg_3" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,20000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11323,11 +11323,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN541"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AA521" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="O512" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA541" sqref="AA541"/>
+      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -43009,10 +43009,10 @@
         <v>1847</v>
       </c>
       <c r="R497" s="58" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="W497" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X497" s="5">
         <v>99999999</v>
@@ -43077,10 +43077,10 @@
         <v>1847</v>
       </c>
       <c r="R498" s="58" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W498" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X498" s="5">
         <v>99999999</v>
@@ -43145,10 +43145,10 @@
         <v>1872</v>
       </c>
       <c r="R499" s="58" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="W499" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X499" s="5">
         <v>99999999</v>
@@ -43213,10 +43213,10 @@
         <v>1847</v>
       </c>
       <c r="R500" s="58" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="W500" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X500" s="5">
         <v>99999999</v>
@@ -43281,10 +43281,10 @@
         <v>1847</v>
       </c>
       <c r="R501" s="58" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="W501" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X501" s="5">
         <v>99999999</v>
@@ -43349,10 +43349,10 @@
         <v>1847</v>
       </c>
       <c r="R502" s="58" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="W502" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X502" s="5">
         <v>99999999</v>
@@ -43417,10 +43417,10 @@
         <v>1848</v>
       </c>
       <c r="R503" s="56" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="W503" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X503" s="5">
         <v>99999999</v>
@@ -43485,10 +43485,10 @@
         <v>1848</v>
       </c>
       <c r="R504" s="56" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="W504" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X504" s="5">
         <v>99999999</v>
@@ -43553,10 +43553,10 @@
         <v>1880</v>
       </c>
       <c r="R505" s="56" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="W505" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X505" s="5">
         <v>99999999</v>
@@ -43621,10 +43621,10 @@
         <v>1849</v>
       </c>
       <c r="R506" s="56" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="W506" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X506" s="5">
         <v>99999999</v>
@@ -43689,10 +43689,10 @@
         <v>1849</v>
       </c>
       <c r="R507" s="56" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="W507" s="57" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="X507" s="5">
         <v>99999999</v>
@@ -43757,10 +43757,10 @@
         <v>1849</v>
       </c>
       <c r="R508" s="56" t="s">
+        <v>1960</v>
+      </c>
+      <c r="W508" s="57" t="s">
         <v>1961</v>
-      </c>
-      <c r="W508" s="57" t="s">
-        <v>1962</v>
       </c>
       <c r="X508" s="5">
         <v>99999999</v>
@@ -43823,7 +43823,7 @@
         <v>546</v>
       </c>
       <c r="X509" s="77" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="Y509" s="78">
         <v>0</v>
@@ -44611,10 +44611,10 @@
         <v>1933</v>
       </c>
       <c r="R521" s="10" t="s">
-        <v>1937</v>
+        <v>1973</v>
       </c>
       <c r="W521" s="5" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="X521" s="5">
         <v>99999999</v>
@@ -44679,7 +44679,7 @@
         <v>1934</v>
       </c>
       <c r="R522" s="10" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="W522" s="5" t="s">
         <v>1200</v>
@@ -44747,7 +44747,7 @@
         <v>1935</v>
       </c>
       <c r="R523" s="10" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="W523" s="5" t="s">
         <v>1200</v>
@@ -44815,7 +44815,7 @@
         <v>1936</v>
       </c>
       <c r="R524" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="W524" s="5" t="s">
         <v>1200</v>
@@ -44883,7 +44883,7 @@
         <v>1933</v>
       </c>
       <c r="R525" s="10" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="W525" s="5" t="s">
         <v>1200</v>
@@ -44951,7 +44951,7 @@
         <v>1934</v>
       </c>
       <c r="R526" s="10" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="W526" s="5" t="s">
         <v>1200</v>
@@ -45019,7 +45019,7 @@
         <v>1935</v>
       </c>
       <c r="R527" s="10" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="W527" s="5" t="s">
         <v>1200</v>
@@ -45087,7 +45087,7 @@
         <v>1936</v>
       </c>
       <c r="R528" s="10" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="W528" s="5" t="s">
         <v>1200</v>
@@ -45155,7 +45155,7 @@
         <v>1933</v>
       </c>
       <c r="R529" s="10" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="W529" s="5" t="s">
         <v>1200</v>
@@ -45223,7 +45223,7 @@
         <v>1934</v>
       </c>
       <c r="R530" s="10" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="W530" s="5" t="s">
         <v>1200</v>
@@ -45291,7 +45291,7 @@
         <v>1935</v>
       </c>
       <c r="R531" s="10" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="W531" s="5" t="s">
         <v>1200</v>
@@ -45359,7 +45359,7 @@
         <v>1936</v>
       </c>
       <c r="R532" s="10" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="W532" s="5" t="s">
         <v>1200</v>
@@ -45400,7 +45400,7 @@
         <v>1</v>
       </c>
       <c r="G533" s="57" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I533" s="57" t="s">
         <v>1285</v>
@@ -45424,13 +45424,13 @@
         <v>1800</v>
       </c>
       <c r="Q533" s="57" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="R533" s="58" t="s">
         <v>1331</v>
       </c>
       <c r="W533" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X533" s="57">
         <v>9999999</v>
@@ -45468,7 +45468,7 @@
         <v>1</v>
       </c>
       <c r="G534" s="57" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I534" s="57" t="s">
         <v>1285</v>
@@ -45498,7 +45498,7 @@
         <v>1332</v>
       </c>
       <c r="W534" s="57" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="X534" s="57">
         <v>9999999</v>
@@ -45536,7 +45536,7 @@
         <v>1</v>
       </c>
       <c r="G535" s="57" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="I535" s="57" t="s">
         <v>1285</v>
@@ -45566,7 +45566,7 @@
         <v>1333</v>
       </c>
       <c r="W535" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X535" s="57">
         <v>9999999</v>
@@ -45604,7 +45604,7 @@
         <v>1</v>
       </c>
       <c r="G536" s="55" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I536" s="55" t="s">
         <v>1217</v>
@@ -45634,7 +45634,7 @@
         <v>1333</v>
       </c>
       <c r="W536" s="55" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X536" s="55">
         <v>9999999</v>
@@ -45672,7 +45672,7 @@
         <v>1</v>
       </c>
       <c r="G537" s="55" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I537" s="55" t="s">
         <v>1217</v>
@@ -45702,7 +45702,7 @@
         <v>1335</v>
       </c>
       <c r="W537" s="55" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X537" s="55">
         <v>9999999</v>
@@ -45740,7 +45740,7 @@
         <v>1</v>
       </c>
       <c r="G538" s="55" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="I538" s="55" t="s">
         <v>1217</v>
@@ -45770,7 +45770,7 @@
         <v>1336</v>
       </c>
       <c r="W538" s="55" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X538" s="55">
         <v>9999999</v>
@@ -45808,10 +45808,10 @@
         <v>1</v>
       </c>
       <c r="G539" s="57" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="I539" s="57" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J539" s="57" t="s">
         <v>1318</v>
@@ -45838,7 +45838,7 @@
         <v>1337</v>
       </c>
       <c r="W539" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X539" s="57">
         <v>9999999</v>
@@ -45876,10 +45876,10 @@
         <v>1</v>
       </c>
       <c r="G540" s="57" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="I540" s="57" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J540" s="57" t="s">
         <v>1319</v>
@@ -45906,7 +45906,7 @@
         <v>1336</v>
       </c>
       <c r="W540" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X540" s="57">
         <v>9999999</v>
@@ -45944,10 +45944,10 @@
         <v>1</v>
       </c>
       <c r="G541" s="57" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="I541" s="57" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J541" s="57" t="s">
         <v>1320</v>
@@ -45974,7 +45974,7 @@
         <v>1338</v>
       </c>
       <c r="W541" s="57" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="X541" s="57">
         <v>9999999</v>
@@ -46013,7 +46013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
@@ -47027,7 +47027,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="74" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C71" s="73">
         <v>1</v>
@@ -47041,7 +47041,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="74" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C72" s="73">
         <v>1</v>
@@ -47055,7 +47055,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="74" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C73" s="73">
         <v>1</v>

--- a/config_2.2/shoping_config.xlsx
+++ b/config_2.2/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="1975">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8452,6 +8452,10 @@
   </si>
   <si>
     <t>600000,20000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年福袋</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8530,7 +8534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8609,6 +8613,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8652,7 +8662,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8888,6 +8898,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11321,13 +11340,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN541"/>
+  <dimension ref="A1:AN548"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="O512" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R521" sqref="R521"/>
+      <selection pane="bottomRight" activeCell="A542" sqref="A542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -45389,619 +45408,1140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:39" s="57" customFormat="1">
+    <row r="533" spans="1:39" s="5" customFormat="1">
       <c r="A533" s="5">
         <v>532</v>
       </c>
-      <c r="B533" s="57">
+      <c r="B533" s="5">
         <v>10449</v>
       </c>
-      <c r="F533" s="57">
-        <v>1</v>
-      </c>
-      <c r="G533" s="57" t="s">
+      <c r="F533" s="5">
+        <v>1</v>
+      </c>
+      <c r="G533" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I533" s="57" t="s">
+      <c r="I533" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J533" s="57" t="s">
+      <c r="J533" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="L533" s="57">
+      <c r="L533" s="5">
         <v>-31</v>
       </c>
-      <c r="M533" s="57">
-        <v>0</v>
-      </c>
-      <c r="N533" s="57">
-        <v>0</v>
-      </c>
-      <c r="O533" s="57" t="s">
+      <c r="M533" s="5">
+        <v>0</v>
+      </c>
+      <c r="N533" s="5">
+        <v>0</v>
+      </c>
+      <c r="O533" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P533" s="57">
+      <c r="P533" s="5">
         <v>1800</v>
       </c>
-      <c r="Q533" s="57" t="s">
+      <c r="Q533" s="5" t="s">
         <v>1969</v>
       </c>
-      <c r="R533" s="58" t="s">
+      <c r="R533" s="10" t="s">
         <v>1331</v>
       </c>
-      <c r="W533" s="57" t="s">
+      <c r="W533" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X533" s="57">
+      <c r="X533" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y533" s="57">
+      <c r="Y533" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z533" s="57">
+      <c r="Z533" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA533" s="57">
+      <c r="AA533" s="5">
         <v>44</v>
       </c>
-      <c r="AH533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL533" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM533" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534" spans="1:39" s="57" customFormat="1">
+      <c r="AH533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL533" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM533" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:39" s="5" customFormat="1">
       <c r="A534" s="5">
         <v>533</v>
       </c>
-      <c r="B534" s="57">
+      <c r="B534" s="5">
         <v>10450</v>
       </c>
-      <c r="F534" s="57">
-        <v>1</v>
-      </c>
-      <c r="G534" s="57" t="s">
+      <c r="F534" s="5">
+        <v>1</v>
+      </c>
+      <c r="G534" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I534" s="57" t="s">
+      <c r="I534" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J534" s="57" t="s">
+      <c r="J534" s="5" t="s">
         <v>1313</v>
       </c>
-      <c r="L534" s="57">
+      <c r="L534" s="5">
         <v>-31</v>
       </c>
-      <c r="M534" s="57">
-        <v>0</v>
-      </c>
-      <c r="N534" s="57">
-        <v>0</v>
-      </c>
-      <c r="O534" s="57" t="s">
+      <c r="M534" s="5">
+        <v>0</v>
+      </c>
+      <c r="N534" s="5">
+        <v>0</v>
+      </c>
+      <c r="O534" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P534" s="57">
+      <c r="P534" s="5">
         <v>3000</v>
       </c>
-      <c r="Q534" s="57" t="s">
+      <c r="Q534" s="5" t="s">
         <v>1324</v>
       </c>
-      <c r="R534" s="58" t="s">
+      <c r="R534" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="W534" s="57" t="s">
+      <c r="W534" s="5" t="s">
         <v>1966</v>
       </c>
-      <c r="X534" s="57">
+      <c r="X534" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y534" s="57">
+      <c r="Y534" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z534" s="57">
+      <c r="Z534" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA534" s="57">
+      <c r="AA534" s="5">
         <v>44</v>
       </c>
-      <c r="AH534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL534" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM534" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535" spans="1:39" s="57" customFormat="1">
+      <c r="AH534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL534" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM534" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:39" s="5" customFormat="1">
       <c r="A535" s="5">
         <v>534</v>
       </c>
-      <c r="B535" s="57">
+      <c r="B535" s="5">
         <v>10451</v>
       </c>
-      <c r="F535" s="57">
-        <v>1</v>
-      </c>
-      <c r="G535" s="57" t="s">
+      <c r="F535" s="5">
+        <v>1</v>
+      </c>
+      <c r="G535" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I535" s="57" t="s">
+      <c r="I535" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="J535" s="57" t="s">
+      <c r="J535" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="L535" s="57">
+      <c r="L535" s="5">
         <v>-31</v>
       </c>
-      <c r="M535" s="57">
-        <v>0</v>
-      </c>
-      <c r="N535" s="57">
-        <v>0</v>
-      </c>
-      <c r="O535" s="57" t="s">
+      <c r="M535" s="5">
+        <v>0</v>
+      </c>
+      <c r="N535" s="5">
+        <v>0</v>
+      </c>
+      <c r="O535" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P535" s="57">
+      <c r="P535" s="5">
         <v>4800</v>
       </c>
-      <c r="Q535" s="57" t="s">
+      <c r="Q535" s="5" t="s">
         <v>1325</v>
       </c>
-      <c r="R535" s="58" t="s">
+      <c r="R535" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="W535" s="57" t="s">
+      <c r="W535" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X535" s="57">
+      <c r="X535" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y535" s="57">
+      <c r="Y535" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z535" s="57">
+      <c r="Z535" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA535" s="57">
+      <c r="AA535" s="5">
         <v>44</v>
       </c>
-      <c r="AH535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL535" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM535" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536" spans="1:39" s="55" customFormat="1">
+      <c r="AH535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL535" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM535" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:39" s="5" customFormat="1">
       <c r="A536" s="5">
         <v>535</v>
       </c>
-      <c r="B536" s="55">
+      <c r="B536" s="5">
         <v>10452</v>
       </c>
-      <c r="F536" s="55">
-        <v>1</v>
-      </c>
-      <c r="G536" s="55" t="s">
+      <c r="F536" s="5">
+        <v>1</v>
+      </c>
+      <c r="G536" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I536" s="55" t="s">
+      <c r="I536" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J536" s="55" t="s">
+      <c r="J536" s="5" t="s">
         <v>1315</v>
       </c>
-      <c r="L536" s="55">
+      <c r="L536" s="5">
         <v>-31</v>
       </c>
-      <c r="M536" s="55">
-        <v>0</v>
-      </c>
-      <c r="N536" s="55">
-        <v>0</v>
-      </c>
-      <c r="O536" s="55" t="s">
+      <c r="M536" s="5">
+        <v>0</v>
+      </c>
+      <c r="N536" s="5">
+        <v>0</v>
+      </c>
+      <c r="O536" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P536" s="55">
+      <c r="P536" s="5">
         <v>4800</v>
       </c>
-      <c r="Q536" s="55" t="s">
+      <c r="Q536" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="R536" s="56" t="s">
+      <c r="R536" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="W536" s="55" t="s">
+      <c r="W536" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X536" s="55">
+      <c r="X536" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y536" s="55">
+      <c r="Y536" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z536" s="55">
+      <c r="Z536" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA536" s="55">
+      <c r="AA536" s="5">
         <v>45</v>
       </c>
-      <c r="AH536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL536" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM536" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537" spans="1:39" s="55" customFormat="1">
+      <c r="AH536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL536" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM536" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:39" s="5" customFormat="1">
       <c r="A537" s="5">
         <v>536</v>
       </c>
-      <c r="B537" s="55">
+      <c r="B537" s="5">
         <v>10453</v>
       </c>
-      <c r="F537" s="55">
-        <v>1</v>
-      </c>
-      <c r="G537" s="55" t="s">
+      <c r="F537" s="5">
+        <v>1</v>
+      </c>
+      <c r="G537" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I537" s="55" t="s">
+      <c r="I537" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J537" s="55" t="s">
+      <c r="J537" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="L537" s="55">
+      <c r="L537" s="5">
         <v>-31</v>
       </c>
-      <c r="M537" s="55">
-        <v>0</v>
-      </c>
-      <c r="N537" s="55">
-        <v>0</v>
-      </c>
-      <c r="O537" s="55" t="s">
+      <c r="M537" s="5">
+        <v>0</v>
+      </c>
+      <c r="N537" s="5">
+        <v>0</v>
+      </c>
+      <c r="O537" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P537" s="55">
+      <c r="P537" s="5">
         <v>9800</v>
       </c>
-      <c r="Q537" s="55" t="s">
+      <c r="Q537" s="5" t="s">
         <v>1327</v>
       </c>
-      <c r="R537" s="56" t="s">
+      <c r="R537" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="W537" s="55" t="s">
+      <c r="W537" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X537" s="55">
+      <c r="X537" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y537" s="55">
+      <c r="Y537" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z537" s="55">
+      <c r="Z537" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA537" s="55">
+      <c r="AA537" s="5">
         <v>45</v>
       </c>
-      <c r="AH537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL537" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM537" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538" spans="1:39" s="55" customFormat="1">
+      <c r="AH537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL537" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM537" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:39" s="5" customFormat="1">
       <c r="A538" s="5">
         <v>537</v>
       </c>
-      <c r="B538" s="55">
+      <c r="B538" s="5">
         <v>10454</v>
       </c>
-      <c r="F538" s="55">
-        <v>1</v>
-      </c>
-      <c r="G538" s="55" t="s">
+      <c r="F538" s="5">
+        <v>1</v>
+      </c>
+      <c r="G538" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I538" s="55" t="s">
+      <c r="I538" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="J538" s="55" t="s">
+      <c r="J538" s="5" t="s">
         <v>1317</v>
       </c>
-      <c r="L538" s="55">
+      <c r="L538" s="5">
         <v>-31</v>
       </c>
-      <c r="M538" s="55">
-        <v>0</v>
-      </c>
-      <c r="N538" s="55">
-        <v>0</v>
-      </c>
-      <c r="O538" s="55" t="s">
+      <c r="M538" s="5">
+        <v>0</v>
+      </c>
+      <c r="N538" s="5">
+        <v>0</v>
+      </c>
+      <c r="O538" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P538" s="55">
+      <c r="P538" s="5">
         <v>19800</v>
       </c>
-      <c r="Q538" s="55" t="s">
+      <c r="Q538" s="5" t="s">
         <v>1328</v>
       </c>
-      <c r="R538" s="56" t="s">
+      <c r="R538" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W538" s="55" t="s">
+      <c r="W538" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X538" s="55">
+      <c r="X538" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y538" s="55">
+      <c r="Y538" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z538" s="55">
+      <c r="Z538" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA538" s="55">
+      <c r="AA538" s="5">
         <v>45</v>
       </c>
-      <c r="AH538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AI538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AL538" s="55">
-        <v>1</v>
-      </c>
-      <c r="AM538" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539" spans="1:39" s="57" customFormat="1">
+      <c r="AH538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL538" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM538" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:39" s="5" customFormat="1">
       <c r="A539" s="5">
         <v>538</v>
       </c>
-      <c r="B539" s="57">
+      <c r="B539" s="5">
         <v>10455</v>
       </c>
-      <c r="F539" s="57">
-        <v>1</v>
-      </c>
-      <c r="G539" s="57" t="s">
+      <c r="F539" s="5">
+        <v>1</v>
+      </c>
+      <c r="G539" s="5" t="s">
         <v>1963</v>
       </c>
-      <c r="I539" s="57" t="s">
+      <c r="I539" s="5" t="s">
         <v>1967</v>
       </c>
-      <c r="J539" s="57" t="s">
+      <c r="J539" s="5" t="s">
         <v>1318</v>
       </c>
-      <c r="L539" s="57">
+      <c r="L539" s="5">
         <v>-31</v>
       </c>
-      <c r="M539" s="57">
-        <v>0</v>
-      </c>
-      <c r="N539" s="57">
-        <v>0</v>
-      </c>
-      <c r="O539" s="57" t="s">
+      <c r="M539" s="5">
+        <v>0</v>
+      </c>
+      <c r="N539" s="5">
+        <v>0</v>
+      </c>
+      <c r="O539" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P539" s="57">
+      <c r="P539" s="5">
         <v>9800</v>
       </c>
-      <c r="Q539" s="57" t="s">
+      <c r="Q539" s="5" t="s">
         <v>1323</v>
       </c>
-      <c r="R539" s="58" t="s">
+      <c r="R539" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="W539" s="57" t="s">
+      <c r="W539" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X539" s="57">
+      <c r="X539" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y539" s="57">
+      <c r="Y539" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z539" s="57">
+      <c r="Z539" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA539" s="57">
+      <c r="AA539" s="5">
         <v>46</v>
       </c>
-      <c r="AH539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL539" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM539" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540" spans="1:39" s="57" customFormat="1">
+      <c r="AH539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL539" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM539" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:39" s="5" customFormat="1">
       <c r="A540" s="5">
         <v>539</v>
       </c>
-      <c r="B540" s="57">
+      <c r="B540" s="5">
         <v>10456</v>
       </c>
-      <c r="F540" s="57">
-        <v>1</v>
-      </c>
-      <c r="G540" s="57" t="s">
+      <c r="F540" s="5">
+        <v>1</v>
+      </c>
+      <c r="G540" s="5" t="s">
         <v>1964</v>
       </c>
-      <c r="I540" s="57" t="s">
+      <c r="I540" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="J540" s="57" t="s">
+      <c r="J540" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="L540" s="57">
+      <c r="L540" s="5">
         <v>-31</v>
       </c>
-      <c r="M540" s="57">
-        <v>0</v>
-      </c>
-      <c r="N540" s="57">
-        <v>0</v>
-      </c>
-      <c r="O540" s="57" t="s">
+      <c r="M540" s="5">
+        <v>0</v>
+      </c>
+      <c r="N540" s="5">
+        <v>0</v>
+      </c>
+      <c r="O540" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P540" s="57">
+      <c r="P540" s="5">
         <v>19800</v>
       </c>
-      <c r="Q540" s="57" t="s">
+      <c r="Q540" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="R540" s="58" t="s">
+      <c r="R540" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="W540" s="57" t="s">
+      <c r="W540" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X540" s="57">
+      <c r="X540" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y540" s="57">
+      <c r="Y540" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z540" s="57">
+      <c r="Z540" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA540" s="57">
+      <c r="AA540" s="5">
         <v>46</v>
       </c>
-      <c r="AH540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL540" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM540" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541" spans="1:39" s="57" customFormat="1">
+      <c r="AH540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL540" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM540" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:39" s="5" customFormat="1">
       <c r="A541" s="5">
         <v>540</v>
       </c>
-      <c r="B541" s="57">
+      <c r="B541" s="5">
         <v>10457</v>
       </c>
-      <c r="F541" s="57">
-        <v>1</v>
-      </c>
-      <c r="G541" s="57" t="s">
+      <c r="F541" s="5">
+        <v>1</v>
+      </c>
+      <c r="G541" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="I541" s="57" t="s">
+      <c r="I541" s="5" t="s">
         <v>1968</v>
       </c>
-      <c r="J541" s="57" t="s">
+      <c r="J541" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="L541" s="57">
+      <c r="L541" s="5">
         <v>-31</v>
       </c>
-      <c r="M541" s="57">
-        <v>0</v>
-      </c>
-      <c r="N541" s="57">
-        <v>0</v>
-      </c>
-      <c r="O541" s="57" t="s">
+      <c r="M541" s="5">
+        <v>0</v>
+      </c>
+      <c r="N541" s="5">
+        <v>0</v>
+      </c>
+      <c r="O541" s="5" t="s">
         <v>1321</v>
       </c>
-      <c r="P541" s="57">
+      <c r="P541" s="5">
         <v>49800</v>
       </c>
-      <c r="Q541" s="57" t="s">
+      <c r="Q541" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="R541" s="58" t="s">
+      <c r="R541" s="10" t="s">
         <v>1338</v>
       </c>
-      <c r="W541" s="57" t="s">
+      <c r="W541" s="5" t="s">
         <v>1961</v>
       </c>
-      <c r="X541" s="57">
+      <c r="X541" s="5">
         <v>9999999</v>
       </c>
-      <c r="Y541" s="57">
+      <c r="Y541" s="5">
         <v>1611619200</v>
       </c>
-      <c r="Z541" s="57">
+      <c r="Z541" s="5">
         <v>1612195199</v>
       </c>
-      <c r="AA541" s="57">
+      <c r="AA541" s="5">
         <v>46</v>
       </c>
-      <c r="AH541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AI541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AL541" s="57">
-        <v>1</v>
-      </c>
-      <c r="AM541" s="57">
+      <c r="AH541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL541" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM541" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A542" s="5">
+        <v>541</v>
+      </c>
+      <c r="B542" s="79">
+        <v>10458</v>
+      </c>
+      <c r="C542" s="79"/>
+      <c r="D542" s="79"/>
+      <c r="E542" s="79"/>
+      <c r="F542" s="79">
+        <v>0</v>
+      </c>
+      <c r="G542" s="79" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H542" s="79"/>
+      <c r="I542" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J542" s="79" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K542" s="79"/>
+      <c r="L542" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M542" s="79">
+        <v>0</v>
+      </c>
+      <c r="N542" s="79">
+        <v>0</v>
+      </c>
+      <c r="O542" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="P542" s="79">
+        <v>99800</v>
+      </c>
+      <c r="Q542" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="R542" s="80" t="s">
+        <v>1387</v>
+      </c>
+      <c r="S542" s="79"/>
+      <c r="T542" s="79"/>
+      <c r="U542" s="79"/>
+      <c r="V542" s="79"/>
+      <c r="W542" s="79" t="s">
+        <v>592</v>
+      </c>
+      <c r="X542" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y542" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z542" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL542" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM542" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A543" s="5">
+        <v>542</v>
+      </c>
+      <c r="B543" s="79">
+        <v>10459</v>
+      </c>
+      <c r="C543" s="79"/>
+      <c r="D543" s="79"/>
+      <c r="E543" s="79"/>
+      <c r="F543" s="79">
+        <v>0</v>
+      </c>
+      <c r="G543" s="79" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H543" s="79"/>
+      <c r="I543" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J543" s="79" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K543" s="79"/>
+      <c r="L543" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M543" s="79">
+        <v>0</v>
+      </c>
+      <c r="N543" s="79">
+        <v>0</v>
+      </c>
+      <c r="O543" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P543" s="79">
+        <v>49800</v>
+      </c>
+      <c r="Q543" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="R543" s="80" t="s">
+        <v>1386</v>
+      </c>
+      <c r="S543" s="79"/>
+      <c r="T543" s="79"/>
+      <c r="U543" s="79"/>
+      <c r="V543" s="79"/>
+      <c r="W543" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X543" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y543" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z543" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL543" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM543" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A544" s="5">
+        <v>543</v>
+      </c>
+      <c r="B544" s="79">
+        <v>10460</v>
+      </c>
+      <c r="C544" s="79"/>
+      <c r="D544" s="79"/>
+      <c r="E544" s="79"/>
+      <c r="F544" s="79">
+        <v>0</v>
+      </c>
+      <c r="G544" s="79" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H544" s="79"/>
+      <c r="I544" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J544" s="79" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K544" s="79"/>
+      <c r="L544" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M544" s="79">
+        <v>0</v>
+      </c>
+      <c r="N544" s="79">
+        <v>0</v>
+      </c>
+      <c r="O544" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P544" s="79">
+        <v>29800</v>
+      </c>
+      <c r="Q544" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R544" s="80" t="s">
+        <v>1391</v>
+      </c>
+      <c r="S544" s="79"/>
+      <c r="T544" s="79"/>
+      <c r="U544" s="79"/>
+      <c r="V544" s="79"/>
+      <c r="W544" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X544" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y544" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z544" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL544" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM544" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A545" s="5">
+        <v>544</v>
+      </c>
+      <c r="B545" s="79">
+        <v>10461</v>
+      </c>
+      <c r="C545" s="79"/>
+      <c r="D545" s="79"/>
+      <c r="E545" s="79"/>
+      <c r="F545" s="79">
+        <v>0</v>
+      </c>
+      <c r="G545" s="79" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H545" s="79"/>
+      <c r="I545" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J545" s="79" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K545" s="79"/>
+      <c r="L545" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M545" s="79">
+        <v>0</v>
+      </c>
+      <c r="N545" s="79">
+        <v>0</v>
+      </c>
+      <c r="O545" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P545" s="79">
+        <v>19800</v>
+      </c>
+      <c r="Q545" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R545" s="80" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S545" s="79"/>
+      <c r="T545" s="79"/>
+      <c r="U545" s="79"/>
+      <c r="V545" s="79"/>
+      <c r="W545" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X545" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y545" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z545" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM545" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A546" s="5">
+        <v>545</v>
+      </c>
+      <c r="B546" s="79">
+        <v>10462</v>
+      </c>
+      <c r="C546" s="79"/>
+      <c r="D546" s="79"/>
+      <c r="E546" s="79"/>
+      <c r="F546" s="79">
+        <v>0</v>
+      </c>
+      <c r="G546" s="79" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H546" s="79"/>
+      <c r="I546" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J546" s="79" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K546" s="79"/>
+      <c r="L546" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M546" s="79">
+        <v>0</v>
+      </c>
+      <c r="N546" s="79">
+        <v>0</v>
+      </c>
+      <c r="O546" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P546" s="79">
+        <v>9800</v>
+      </c>
+      <c r="Q546" s="79" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R546" s="80" t="s">
+        <v>1390</v>
+      </c>
+      <c r="S546" s="79"/>
+      <c r="T546" s="79"/>
+      <c r="U546" s="79"/>
+      <c r="V546" s="79"/>
+      <c r="W546" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X546" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y546" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z546" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL546" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM546" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A547" s="5">
+        <v>546</v>
+      </c>
+      <c r="B547" s="79">
+        <v>10463</v>
+      </c>
+      <c r="C547" s="79"/>
+      <c r="D547" s="79"/>
+      <c r="E547" s="79"/>
+      <c r="F547" s="79">
+        <v>0</v>
+      </c>
+      <c r="G547" s="79" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H547" s="79"/>
+      <c r="I547" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J547" s="79" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K547" s="79"/>
+      <c r="L547" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M547" s="79">
+        <v>0</v>
+      </c>
+      <c r="N547" s="79">
+        <v>0</v>
+      </c>
+      <c r="O547" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P547" s="79">
+        <v>4800</v>
+      </c>
+      <c r="Q547" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R547" s="80" t="s">
+        <v>1385</v>
+      </c>
+      <c r="S547" s="79"/>
+      <c r="T547" s="79"/>
+      <c r="U547" s="79"/>
+      <c r="V547" s="79"/>
+      <c r="W547" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X547" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y547" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z547" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL547" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM547" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:39" s="5" customFormat="1" ht="14.25">
+      <c r="A548" s="5">
+        <v>547</v>
+      </c>
+      <c r="B548" s="79">
+        <v>10464</v>
+      </c>
+      <c r="C548" s="79"/>
+      <c r="D548" s="79"/>
+      <c r="E548" s="79"/>
+      <c r="F548" s="79">
+        <v>0</v>
+      </c>
+      <c r="G548" s="79" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H548" s="79"/>
+      <c r="I548" s="79" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J548" s="79" t="s">
+        <v>1471</v>
+      </c>
+      <c r="K548" s="79"/>
+      <c r="L548" s="79">
+        <v>-31</v>
+      </c>
+      <c r="M548" s="79">
+        <v>0</v>
+      </c>
+      <c r="N548" s="79">
+        <v>0</v>
+      </c>
+      <c r="O548" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P548" s="79">
+        <v>1800</v>
+      </c>
+      <c r="Q548" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="R548" s="80" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S548" s="79"/>
+      <c r="T548" s="79"/>
+      <c r="U548" s="79"/>
+      <c r="V548" s="79"/>
+      <c r="W548" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X548" s="79">
+        <v>9999999</v>
+      </c>
+      <c r="Y548" s="81">
+        <v>1612224000</v>
+      </c>
+      <c r="Z548" s="81">
+        <v>1612799999</v>
+      </c>
+      <c r="AH548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL548" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM548" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A542:AN548">
+    <sortCondition descending="1" ref="A542"/>
+  </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
